--- a/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Intervention</t>
   </si>
@@ -118,13 +118,16 @@
     <t>years</t>
   </si>
   <si>
+    <t>Mm3/FU</t>
+  </si>
+  <si>
+    <t>kton/FU</t>
+  </si>
+  <si>
+    <t>kha/FU</t>
+  </si>
+  <si>
     <t>m3/FU</t>
-  </si>
-  <si>
-    <t>kton/FU</t>
-  </si>
-  <si>
-    <t>kha/FU</t>
   </si>
   <si>
     <t>0.007236263677499999</t>
@@ -497,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -586,8 +589,11 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,10 +678,13 @@
       <c r="AC2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
@@ -691,13 +700,13 @@
         <v>1.884998616952994</v>
       </c>
       <c r="L4">
-        <v>3.748345158601296</v>
+        <v>95821.11445516523</v>
       </c>
       <c r="M4">
         <v>0.0002413052152405726</v>
       </c>
       <c r="N4">
-        <v>0.001275407827961317</v>
+        <v>0.003066733929699694</v>
       </c>
       <c r="O4">
         <v>0.04801520355977118</v>
@@ -708,14 +717,11 @@
       <c r="Q4">
         <v>0.05567983444780111</v>
       </c>
-      <c r="R4">
-        <v>0.00425358081702143</v>
-      </c>
       <c r="S4">
         <v>0.001979796430532588</v>
       </c>
       <c r="T4">
-        <v>2.888019662350416e-05</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="U4">
         <v>0.2802074924111366</v>
@@ -727,13 +733,13 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X4">
-        <v>-37.47919800519594</v>
+        <v>-1054032.258538882</v>
       </c>
       <c r="Y4">
         <v>-0.0004332557218731381</v>
       </c>
       <c r="Z4">
-        <v>-0.01272519808298966</v>
+        <v>-0.03065871611761395</v>
       </c>
       <c r="AA4">
         <v>-0.1999445431865752</v>
@@ -744,10 +750,13 @@
       <c r="AC4">
         <v>0.3650390321854502</v>
       </c>
+      <c r="AD4">
+        <v>-95821.11398723003</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
@@ -763,13 +772,13 @@
         <v>1.885248963152183</v>
       </c>
       <c r="L5">
-        <v>3.748344953288324</v>
+        <v>95821.11445514367</v>
       </c>
       <c r="M5">
         <v>0.0002412173598713707</v>
       </c>
       <c r="N5">
-        <v>0.001275402049031982</v>
+        <v>0.00306673339309782</v>
       </c>
       <c r="O5">
         <v>0.04796870332211256</v>
@@ -780,14 +789,11 @@
       <c r="Q5">
         <v>0.05567861720919609</v>
       </c>
-      <c r="R5">
-        <v>0.00425358081702143</v>
-      </c>
       <c r="S5">
         <v>0.001979796430532588</v>
       </c>
       <c r="T5">
-        <v>2.888019662350416e-05</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="U5">
         <v>0.2802074924111366</v>
@@ -799,13 +805,13 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X5">
-        <v>-37.47919595206622</v>
+        <v>-1054032.258538667</v>
       </c>
       <c r="Y5">
         <v>-0.0004323771681811195</v>
       </c>
       <c r="Z5">
-        <v>-0.01272514029369631</v>
+        <v>-0.03065871075159521</v>
       </c>
       <c r="AA5">
         <v>-0.199479540809989</v>
@@ -816,10 +822,13 @@
       <c r="AC5">
         <v>0.3650769346859306</v>
       </c>
+      <c r="AD5">
+        <v>-95821.11398723003</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
@@ -835,13 +844,13 @@
         <v>1.885499375857038</v>
       </c>
       <c r="L6">
-        <v>3.748344747975352</v>
+        <v>95821.11445512212</v>
       </c>
       <c r="M6">
         <v>0.00024112950086419</v>
       </c>
       <c r="N6">
-        <v>0.001275396271921636</v>
+        <v>0.003066732856495946</v>
       </c>
       <c r="O6">
         <v>0.04792220238596201</v>
@@ -852,14 +861,11 @@
       <c r="Q6">
         <v>0.05567740043625236</v>
       </c>
-      <c r="R6">
-        <v>0.00425358081702143</v>
-      </c>
       <c r="S6">
         <v>0.001979796430532588</v>
       </c>
       <c r="T6">
-        <v>2.888019662350416e-05</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="U6">
         <v>0.2802074924111366</v>
@@ -871,13 +877,13 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X6">
-        <v>-37.4791938989365</v>
+        <v>-1054032.258538451</v>
       </c>
       <c r="Y6">
         <v>-0.0004314985781093128</v>
       </c>
       <c r="Z6">
-        <v>-0.01272508252259286</v>
+        <v>-0.03065870538557647</v>
       </c>
       <c r="AA6">
         <v>-0.1990145314484835</v>
@@ -888,10 +894,13 @@
       <c r="AC6">
         <v>0.365114837186411</v>
       </c>
+      <c r="AD6">
+        <v>-95821.11398723003</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
@@ -907,13 +916,13 @@
         <v>1.885749848194414</v>
       </c>
       <c r="L7">
-        <v>3.74834454266238</v>
+        <v>95821.11445510057</v>
       </c>
       <c r="M7">
         <v>0.0002410416509519564</v>
       </c>
       <c r="N7">
-        <v>0.00127539049663028</v>
+        <v>0.003066732318075083</v>
       </c>
       <c r="O7">
         <v>0.04787570238113403</v>
@@ -924,14 +933,11 @@
       <c r="Q7">
         <v>0.05567618366330862</v>
       </c>
-      <c r="R7">
-        <v>0.00425358081702143</v>
-      </c>
       <c r="S7">
         <v>0.001979796430532588</v>
       </c>
       <c r="T7">
-        <v>2.888019662350416e-05</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="U7">
         <v>0.2802074924111366</v>
@@ -943,13 +949,13 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X7">
-        <v>-37.47919184580678</v>
+        <v>-1054032.258538236</v>
       </c>
       <c r="Y7">
         <v>-0.0004306200789869763</v>
       </c>
       <c r="Z7">
-        <v>-0.01272502476967929</v>
+        <v>-0.03065870000136783</v>
       </c>
       <c r="AA7">
         <v>-0.1985495314002037</v>
@@ -960,10 +966,13 @@
       <c r="AC7">
         <v>0.365152737358585</v>
       </c>
+      <c r="AD7">
+        <v>-95821.11398723003</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
@@ -979,13 +988,13 @@
         <v>1.886000393988296</v>
       </c>
       <c r="L8">
-        <v>3.748344337378512</v>
+        <v>95821.11445507902</v>
       </c>
       <c r="M8">
         <v>0.0002409537919447757</v>
       </c>
       <c r="N8">
-        <v>0.001275384719519934</v>
+        <v>0.003066731781473209</v>
       </c>
       <c r="O8">
         <v>0.04782920191064477</v>
@@ -996,14 +1005,11 @@
       <c r="Q8">
         <v>0.0556749664247036</v>
       </c>
-      <c r="R8">
-        <v>0.00425358081702143</v>
-      </c>
       <c r="S8">
         <v>0.001979796430532588</v>
       </c>
       <c r="T8">
-        <v>2.888019662350416e-05</v>
+        <v>8.62317938299384e-06</v>
       </c>
       <c r="U8">
         <v>0.2802074924111366</v>
@@ -1015,13 +1021,13 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X8">
-        <v>-37.4791897929681</v>
+        <v>-1054032.25853802</v>
       </c>
       <c r="Y8">
         <v>-0.0004297414889151696</v>
       </c>
       <c r="Z8">
-        <v>-0.01272496699857584</v>
+        <v>-0.03065869463534909</v>
       </c>
       <c r="AA8">
         <v>-0.1980845266953111</v>
@@ -1031,6 +1037,9 @@
       </c>
       <c r="AC8">
         <v>0.3651906398590654</v>
+      </c>
+      <c r="AD8">
+        <v>-95821.11398723003</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
@@ -700,7 +700,7 @@
         <v>1.884998616952994</v>
       </c>
       <c r="L4">
-        <v>95821.11445516523</v>
+        <v>1.397863789941766</v>
       </c>
       <c r="M4">
         <v>0.0002413052152405726</v>
@@ -733,7 +733,7 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X4">
-        <v>-1054032.258538882</v>
+        <v>-13.97647987098026</v>
       </c>
       <c r="Y4">
         <v>-0.0004332557218731381</v>
@@ -751,7 +751,7 @@
         <v>0.3650390321854502</v>
       </c>
       <c r="AD4">
-        <v>-95821.11398723003</v>
+        <v>0.002158028437406756</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -772,7 +772,7 @@
         <v>1.885248963152183</v>
       </c>
       <c r="L5">
-        <v>95821.11445514367</v>
+        <v>1.397863561243867</v>
       </c>
       <c r="M5">
         <v>0.0002412173598713707</v>
@@ -805,7 +805,7 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X5">
-        <v>-1054032.258538667</v>
+        <v>-13.97647758400126</v>
       </c>
       <c r="Y5">
         <v>-0.0004323771681811195</v>
@@ -823,7 +823,7 @@
         <v>0.3650769346859306</v>
       </c>
       <c r="AD5">
-        <v>-95821.11398723003</v>
+        <v>0.002158028437406756</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -844,7 +844,7 @@
         <v>1.885499375857038</v>
       </c>
       <c r="L6">
-        <v>95821.11445512212</v>
+        <v>1.397863332502311</v>
       </c>
       <c r="M6">
         <v>0.00024112950086419</v>
@@ -877,7 +877,7 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X6">
-        <v>-1054032.258538451</v>
+        <v>-13.9764752965857</v>
       </c>
       <c r="Y6">
         <v>-0.0004314985781093128</v>
@@ -895,7 +895,7 @@
         <v>0.365114837186411</v>
       </c>
       <c r="AD6">
-        <v>-95821.11398723003</v>
+        <v>0.002158028437406756</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -916,7 +916,7 @@
         <v>1.885749848194414</v>
       </c>
       <c r="L7">
-        <v>95821.11445510057</v>
+        <v>1.397863103789859</v>
       </c>
       <c r="M7">
         <v>0.0002410416509519564</v>
@@ -949,7 +949,7 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X7">
-        <v>-1054032.258538236</v>
+        <v>-13.97647300946119</v>
       </c>
       <c r="Y7">
         <v>-0.0004306200789869763</v>
@@ -967,7 +967,7 @@
         <v>0.365152737358585</v>
       </c>
       <c r="AD7">
-        <v>-95821.11398723003</v>
+        <v>0.002158028437406756</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -988,7 +988,7 @@
         <v>1.886000393988296</v>
       </c>
       <c r="L8">
-        <v>95821.11445507902</v>
+        <v>1.397862875077408</v>
       </c>
       <c r="M8">
         <v>0.0002409537919447757</v>
@@ -1021,7 +1021,7 @@
         <v>0.507281495956704</v>
       </c>
       <c r="X8">
-        <v>-1054032.25853802</v>
+        <v>-13.97647072233667</v>
       </c>
       <c r="Y8">
         <v>-0.0004297414889151696</v>
@@ -1039,7 +1039,7 @@
         <v>0.3651906398590654</v>
       </c>
       <c r="AD8">
-        <v>-95821.11398723003</v>
+        <v>0.002158028437406756</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Intervention</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>kha/FU</t>
-  </si>
-  <si>
-    <t>m3/FU</t>
   </si>
   <si>
     <t>0.007236263677499999</t>
@@ -500,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -589,11 +586,8 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,13 +672,10 @@
       <c r="AC2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
@@ -717,6 +708,9 @@
       <c r="Q4">
         <v>0.05567983444780111</v>
       </c>
+      <c r="R4">
+        <v>0.002158028437406756</v>
+      </c>
       <c r="S4">
         <v>0.001979796430532588</v>
       </c>
@@ -750,13 +744,10 @@
       <c r="AC4">
         <v>0.3650390321854502</v>
       </c>
-      <c r="AD4">
-        <v>0.002158028437406756</v>
-      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
@@ -789,6 +780,9 @@
       <c r="Q5">
         <v>0.05567861720919609</v>
       </c>
+      <c r="R5">
+        <v>0.002158028437406756</v>
+      </c>
       <c r="S5">
         <v>0.001979796430532588</v>
       </c>
@@ -822,13 +816,10 @@
       <c r="AC5">
         <v>0.3650769346859306</v>
       </c>
-      <c r="AD5">
-        <v>0.002158028437406756</v>
-      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
@@ -861,6 +852,9 @@
       <c r="Q6">
         <v>0.05567740043625236</v>
       </c>
+      <c r="R6">
+        <v>0.002158028437406756</v>
+      </c>
       <c r="S6">
         <v>0.001979796430532588</v>
       </c>
@@ -894,13 +888,10 @@
       <c r="AC6">
         <v>0.365114837186411</v>
       </c>
-      <c r="AD6">
-        <v>0.002158028437406756</v>
-      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
@@ -933,6 +924,9 @@
       <c r="Q7">
         <v>0.05567618366330862</v>
       </c>
+      <c r="R7">
+        <v>0.002158028437406756</v>
+      </c>
       <c r="S7">
         <v>0.001979796430532588</v>
       </c>
@@ -966,13 +960,10 @@
       <c r="AC7">
         <v>0.365152737358585</v>
       </c>
-      <c r="AD7">
-        <v>0.002158028437406756</v>
-      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
@@ -1005,6 +996,9 @@
       <c r="Q8">
         <v>0.0556749664247036</v>
       </c>
+      <c r="R8">
+        <v>0.002158028437406756</v>
+      </c>
       <c r="S8">
         <v>0.001979796430532588</v>
       </c>
@@ -1037,9 +1031,6 @@
       </c>
       <c r="AC8">
         <v>0.3651906398590654</v>
-      </c>
-      <c r="AD8">
-        <v>0.002158028437406756</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
+++ b/CVX_Kenya/Optimization/ Ecopulpers_petr.xlsx
@@ -679,70 +679,70 @@
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
-        <v>0.9599999198690057</v>
+        <v>102.2399915689602</v>
       </c>
       <c r="I4">
-        <v>0.5092841507866979</v>
+        <v>55.00260222610086</v>
       </c>
       <c r="J4">
-        <v>0.5305043680172296</v>
+        <v>0.5379754182491491</v>
       </c>
       <c r="K4">
-        <v>1.884998616952994</v>
+        <v>1.858820990844746</v>
       </c>
       <c r="L4">
-        <v>1.397863789941766</v>
+        <v>148.8033189277921</v>
       </c>
       <c r="M4">
-        <v>0.0002413052152405726</v>
+        <v>0.02669715367301251</v>
       </c>
       <c r="N4">
-        <v>0.003066733929699694</v>
+        <v>0.3265918912320558</v>
       </c>
       <c r="O4">
-        <v>0.04801520355977118</v>
+        <v>5.638150449842215</v>
       </c>
       <c r="P4">
-        <v>0.01422424637712538</v>
+        <v>1.557508369209245</v>
       </c>
       <c r="Q4">
-        <v>0.05567983444780111</v>
+        <v>5.943138705100864</v>
       </c>
       <c r="R4">
-        <v>0.002158028437406756</v>
+        <v>0.2298300277761882</v>
       </c>
       <c r="S4">
-        <v>0.001979796430532588</v>
+        <v>0.2108483190750121</v>
       </c>
       <c r="T4">
-        <v>8.62317938299384e-06</v>
+        <v>0.0009183686515825684</v>
       </c>
       <c r="U4">
-        <v>0.2802074924111366</v>
+        <v>29.84209794015624</v>
       </c>
       <c r="V4">
-        <v>0.05442387005314231</v>
+        <v>5.796142147388309</v>
       </c>
       <c r="W4">
-        <v>0.507281495956704</v>
+        <v>54.02547934046015</v>
       </c>
       <c r="X4">
-        <v>-13.97647987098026</v>
+        <v>-1487.803359250145</v>
       </c>
       <c r="Y4">
-        <v>-0.0004332557218731381</v>
+        <v>-0.05612321765511297</v>
       </c>
       <c r="Z4">
-        <v>-0.03065871611761395</v>
+        <v>-3.265000543668975</v>
       </c>
       <c r="AA4">
-        <v>-0.1999445431865752</v>
+        <v>-26.53940655826591</v>
       </c>
       <c r="AB4">
-        <v>-0.5023744744248688</v>
+        <v>-53.63524490362033</v>
       </c>
       <c r="AC4">
-        <v>0.3650390321854502</v>
+        <v>38.4503956483677</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -751,70 +751,70 @@
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
-        <v>0.9599999198690057</v>
+        <v>102.2399915689602</v>
       </c>
       <c r="I5">
-        <v>0.5092165218666196</v>
+        <v>55.00253463163972</v>
       </c>
       <c r="J5">
-        <v>0.5304339212196012</v>
+        <v>0.5379747571139112</v>
       </c>
       <c r="K5">
-        <v>1.885248963152183</v>
+        <v>1.858823275212259</v>
       </c>
       <c r="L5">
-        <v>1.397863561243867</v>
+        <v>148.803318699167</v>
       </c>
       <c r="M5">
-        <v>0.0002412173598713707</v>
+        <v>0.02669706585948006</v>
       </c>
       <c r="N5">
-        <v>0.00306673339309782</v>
+        <v>0.3265918906972729</v>
       </c>
       <c r="O5">
-        <v>0.04796870332211256</v>
+        <v>5.638103972189128</v>
       </c>
       <c r="P5">
-        <v>0.01422045612707734</v>
+        <v>1.557504581287503</v>
       </c>
       <c r="Q5">
-        <v>0.05567861720919609</v>
+        <v>5.94313748832792</v>
       </c>
       <c r="R5">
-        <v>0.002158028437406756</v>
+        <v>0.2298300277761882</v>
       </c>
       <c r="S5">
-        <v>0.001979796430532588</v>
+        <v>0.2108483190750121</v>
       </c>
       <c r="T5">
-        <v>8.62317938299384e-06</v>
+        <v>0.0009183686515825684</v>
       </c>
       <c r="U5">
-        <v>0.2802074924111366</v>
+        <v>29.84209794015624</v>
       </c>
       <c r="V5">
-        <v>0.05442387005314231</v>
+        <v>5.796142147388309</v>
       </c>
       <c r="W5">
-        <v>0.507281495956704</v>
+        <v>54.02547934046015</v>
       </c>
       <c r="X5">
-        <v>-13.97647758400126</v>
+        <v>-1487.803356963894</v>
       </c>
       <c r="Y5">
-        <v>-0.0004323771681811195</v>
+        <v>-0.05612233951978851</v>
       </c>
       <c r="Z5">
-        <v>-0.03065871075159521</v>
+        <v>-3.265000538321146</v>
       </c>
       <c r="AA5">
-        <v>-0.199479540809989</v>
+        <v>-26.53894178173505</v>
       </c>
       <c r="AB5">
-        <v>-0.5023623020388186</v>
+        <v>-53.6352327358909</v>
       </c>
       <c r="AC5">
-        <v>0.3650769346859306</v>
+        <v>38.45043352758512</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -823,70 +823,70 @@
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
-        <v>0.9599999198690057</v>
+        <v>102.2399915689602</v>
       </c>
       <c r="I6">
-        <v>0.5091488929465413</v>
+        <v>55.00246703624725</v>
       </c>
       <c r="J6">
-        <v>0.5303634744219727</v>
+        <v>0.5379740959695641</v>
       </c>
       <c r="K6">
-        <v>1.885499375857038</v>
+        <v>1.858825559616861</v>
       </c>
       <c r="L6">
-        <v>1.397863332502311</v>
+        <v>148.8033184706001</v>
       </c>
       <c r="M6">
-        <v>0.00024112950086419</v>
+        <v>0.02669697804412863</v>
       </c>
       <c r="N6">
-        <v>0.003066732856495946</v>
+        <v>0.326591890158852</v>
       </c>
       <c r="O6">
-        <v>0.04792220238596201</v>
+        <v>5.638057494303212</v>
       </c>
       <c r="P6">
-        <v>0.0142166658770293</v>
+        <v>1.5575007929001</v>
       </c>
       <c r="Q6">
-        <v>0.05567740043625236</v>
+        <v>5.943136272020638</v>
       </c>
       <c r="R6">
-        <v>0.002158028437406756</v>
+        <v>0.2298300277761882</v>
       </c>
       <c r="S6">
-        <v>0.001979796430532588</v>
+        <v>0.2108483190750121</v>
       </c>
       <c r="T6">
-        <v>8.62317938299384e-06</v>
+        <v>0.0009183686515825684</v>
       </c>
       <c r="U6">
-        <v>0.2802074924111366</v>
+        <v>29.84209794015624</v>
       </c>
       <c r="V6">
-        <v>0.05442387005314231</v>
+        <v>5.796142147388309</v>
       </c>
       <c r="W6">
-        <v>0.507281495956704</v>
+        <v>54.02547934046015</v>
       </c>
       <c r="X6">
-        <v>-13.9764752965857</v>
+        <v>-1487.803354678224</v>
       </c>
       <c r="Y6">
-        <v>-0.0004314985781093128</v>
+        <v>-0.05612146136627416</v>
       </c>
       <c r="Z6">
-        <v>-0.03065870538557647</v>
+        <v>-3.265000532936938</v>
       </c>
       <c r="AA6">
-        <v>-0.1990145314484835</v>
+        <v>-26.53847700287588</v>
       </c>
       <c r="AB6">
-        <v>-0.5023501343093812</v>
+        <v>-53.63522057281807</v>
       </c>
       <c r="AC6">
-        <v>0.365114837186411</v>
+        <v>38.45047141145915</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -895,70 +895,70 @@
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
-        <v>0.9599999198690057</v>
+        <v>102.2399915689602</v>
       </c>
       <c r="I7">
-        <v>0.5090812658891082</v>
+        <v>55.00239944085479</v>
       </c>
       <c r="J7">
-        <v>0.5302930295645999</v>
+        <v>0.5379734348252172</v>
       </c>
       <c r="K7">
-        <v>1.885749848194414</v>
+        <v>1.858827844027078</v>
       </c>
       <c r="L7">
-        <v>1.397863103789859</v>
+        <v>148.8033182419604</v>
       </c>
       <c r="M7">
-        <v>0.0002410416509519564</v>
+        <v>0.02669689023059618</v>
       </c>
       <c r="N7">
-        <v>0.003066732318075083</v>
+        <v>0.3265918896222502</v>
       </c>
       <c r="O7">
-        <v>0.04787570238113403</v>
+        <v>5.638011016882956</v>
       </c>
       <c r="P7">
-        <v>0.0142128758598119</v>
+        <v>1.557497004512697</v>
       </c>
       <c r="Q7">
-        <v>0.05567618366330862</v>
+        <v>5.943135055713356</v>
       </c>
       <c r="R7">
-        <v>0.002158028437406756</v>
+        <v>0.2298300277761882</v>
       </c>
       <c r="S7">
-        <v>0.001979796430532588</v>
+        <v>0.2108483190750121</v>
       </c>
       <c r="T7">
-        <v>8.62317938299384e-06</v>
+        <v>0.0009183686515825684</v>
       </c>
       <c r="U7">
-        <v>0.2802074924111366</v>
+        <v>29.84209794015624</v>
       </c>
       <c r="V7">
-        <v>0.05442387005314231</v>
+        <v>5.796142147388309</v>
       </c>
       <c r="W7">
-        <v>0.507281495956704</v>
+        <v>54.02547934046015</v>
       </c>
       <c r="X7">
-        <v>-13.97647300946119</v>
+        <v>-1487.803352391828</v>
       </c>
       <c r="Y7">
-        <v>-0.0004306200789869763</v>
+        <v>-0.05612058323094971</v>
       </c>
       <c r="Z7">
-        <v>-0.03065870000136783</v>
+        <v>-3.265000527570919</v>
       </c>
       <c r="AA7">
-        <v>-0.1985495314002037</v>
+        <v>-26.53801222867332</v>
       </c>
       <c r="AB7">
-        <v>-0.5023379665799439</v>
+        <v>-53.63520840974525</v>
       </c>
       <c r="AC7">
-        <v>0.365152737358585</v>
+        <v>38.45050929533318</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -967,70 +967,70 @@
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
-        <v>0.9599999198690057</v>
+        <v>102.2399915689602</v>
       </c>
       <c r="I8">
-        <v>0.5090136369690299</v>
+        <v>55.00233184546232</v>
       </c>
       <c r="J8">
-        <v>0.5302225827669715</v>
+        <v>0.5379727736808702</v>
       </c>
       <c r="K8">
-        <v>1.886000393988296</v>
+        <v>1.858830128442909</v>
       </c>
       <c r="L8">
-        <v>1.397862875077408</v>
+        <v>148.8033180133643</v>
       </c>
       <c r="M8">
-        <v>0.0002409537919447757</v>
+        <v>0.0266968024225207</v>
       </c>
       <c r="N8">
-        <v>0.003066731781473209</v>
+        <v>0.3265918890856483</v>
       </c>
       <c r="O8">
-        <v>0.04782920191064477</v>
+        <v>5.63796453922987</v>
       </c>
       <c r="P8">
-        <v>0.01420908560976386</v>
+        <v>1.557493216358125</v>
       </c>
       <c r="Q8">
-        <v>0.0556749664247036</v>
+        <v>5.943133839406073</v>
       </c>
       <c r="R8">
-        <v>0.002158028437406756</v>
+        <v>0.2298300277761882</v>
       </c>
       <c r="S8">
-        <v>0.001979796430532588</v>
+        <v>0.2108483190750121</v>
       </c>
       <c r="T8">
-        <v>8.62317938299384e-06</v>
+        <v>0.0009183686515825684</v>
       </c>
       <c r="U8">
-        <v>0.2802074924111366</v>
+        <v>29.84209794015624</v>
       </c>
       <c r="V8">
-        <v>0.05442387005314231</v>
+        <v>5.796142147388309</v>
       </c>
       <c r="W8">
-        <v>0.507281495956704</v>
+        <v>54.02547934046015</v>
       </c>
       <c r="X8">
-        <v>-13.97647072233667</v>
+        <v>-1487.803350105867</v>
       </c>
       <c r="Y8">
-        <v>-0.0004297414889151696</v>
+        <v>-0.05611970515019493</v>
       </c>
       <c r="Z8">
-        <v>-0.03065869463534909</v>
+        <v>-3.2650005222049</v>
       </c>
       <c r="AA8">
-        <v>-0.1980845266953111</v>
+        <v>-26.53754745214246</v>
       </c>
       <c r="AB8">
-        <v>-0.5023257941938937</v>
+        <v>-53.63519624667242</v>
       </c>
       <c r="AC8">
-        <v>0.3651906398590654</v>
+        <v>38.4505471768789</v>
       </c>
     </row>
   </sheetData>
